--- a/Mifos Automation Excels/Client/4039-CREATECLIENT-PERSON-EDIT-ACTIVATE.xlsx
+++ b/Mifos Automation Excels/Client/4039-CREATECLIENT-PERSON-EDIT-ACTIVATE.xlsx
@@ -637,13 +637,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
